--- a/Template.xlsx
+++ b/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -72,15 +72,21 @@
   </si>
   <si>
     <t>Làm giao diện admin</t>
+  </si>
+  <si>
+    <t>Đinh Nguyễn Hữu Thắng</t>
+  </si>
+  <si>
+    <t>14/9/2025</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -298,9 +304,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -313,9 +316,13 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,15 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
   </cols>
@@ -642,23 +650,35 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+      <c r="B2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="21">
+        <v>46001</v>
+      </c>
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="20">
+      <c r="E2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20">
+        <v>46001</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="19">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="6"/>
@@ -668,28 +688,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="21">
-        <v>45911</v>
+        <v>46000</v>
       </c>
       <c r="C3" s="21">
-        <v>45938</v>
-      </c>
-      <c r="D3" s="17">
+        <v>45879</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20">
+        <v>45910</v>
+      </c>
       <c r="G3" s="21">
-        <v>45939</v>
-      </c>
-      <c r="H3" s="17">
+        <v>45940</v>
+      </c>
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="6"/>
@@ -759,6 +781,9 @@
       <c r="J8" s="11"/>
       <c r="K8" s="6"/>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
